--- a/bikedef4.xlsx
+++ b/bikedef4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\code\triangle-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1AFF7E5-DF8C-458F-BAF4-423379B02355}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAB6BC-8B04-4A31-8BC5-9C4220DDEFF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="3960" windowWidth="17700" windowHeight="5085" activeTab="2" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
+    <workbookView xWindow="19635" yWindow="3960" windowWidth="17700" windowHeight="5085" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicledyn" sheetId="1" r:id="rId1"/>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027EF2B-558D-425C-8AA2-44CBB5FD91AE}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +617,10 @@
         <v>0.41128501861930683</v>
       </c>
       <c r="R3">
-        <v>2.1910929266586197E-2</v>
+        <v>8.9017473503295152E-3</v>
       </c>
       <c r="S3">
-        <v>1.4271632589302385</v>
+        <v>0.57981323403036367</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -652,10 +652,10 @@
         <v>0.41145913855477567</v>
       </c>
       <c r="R4">
-        <v>2.3811016607035797E-2</v>
+        <v>9.6781175597538734E-3</v>
       </c>
       <c r="S4">
-        <v>1.4241726578284892</v>
+        <v>0.57886274388547043</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -687,10 +687,10 @@
         <v>0.41156462585034015</v>
       </c>
       <c r="R5">
-        <v>2.4869952582639521E-2</v>
+        <v>1.0111317254174398E-2</v>
       </c>
       <c r="S5">
-        <v>1.4224548108657702</v>
+        <v>0.57832405689548549</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -722,10 +722,10 @@
         <v>0.40860116032783866</v>
       </c>
       <c r="R6">
-        <v>2.5324194356224662E-2</v>
+        <v>1.0221935721521318E-2</v>
       </c>
       <c r="S6">
-        <v>1.4398287439831878</v>
+        <v>0.58117690395064003</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
         <v>0.4116264687693259</v>
       </c>
       <c r="R7">
-        <v>2.5550319626382784E-2</v>
+        <v>1.038961038961039E-2</v>
       </c>
       <c r="S7">
-        <v>1.4213886144534138</v>
+        <v>0.57798392084106376</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -792,10 +792,10 @@
         <v>0.4116264687693259</v>
       </c>
       <c r="R8">
-        <v>2.5626319548958543E-2</v>
+        <v>1.0420531849103279E-2</v>
       </c>
       <c r="S8">
-        <v>1.421310203826659</v>
+        <v>0.57795299938157074</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -827,10 +827,10 @@
         <v>0.41165739022881881</v>
       </c>
       <c r="R9">
-        <v>2.5700381780550487E-2</v>
+        <v>1.0451453308596165E-2</v>
       </c>
       <c r="S9">
-        <v>1.4210486245464737</v>
+        <v>0.57789115646258504</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -8628,7 +8628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE9AA78-FBF9-4F08-BC5C-A2CFB1B47071}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/bikedef4.xlsx
+++ b/bikedef4.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\code\triangle-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EAB6BC-8B04-4A31-8BC5-9C4220DDEFF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBFFB7F-EDEA-4357-8693-57E9542089A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="3960" windowWidth="17700" windowHeight="5085" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
+    <workbookView xWindow="19635" yWindow="3960" windowWidth="17700" windowHeight="5085" activeTab="3" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicledyn" sheetId="1" r:id="rId1"/>
     <sheet name="engine" sheetId="2" r:id="rId2"/>
     <sheet name="gear" sheetId="3" r:id="rId3"/>
+    <sheet name="electric" sheetId="4" r:id="rId4"/>
+    <sheet name="motor_f" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Info</t>
   </si>
@@ -132,6 +134,45 @@
   </si>
   <si>
     <t>Fuel heating value (MJ/kg)</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>Extant</t>
+  </si>
+  <si>
+    <t>Gear ratio</t>
+  </si>
+  <si>
+    <t>Front</t>
+  </si>
+  <si>
+    <t>Rear</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>Controller eff</t>
+  </si>
+  <si>
+    <t>Battery eff</t>
+  </si>
+  <si>
+    <t>Supercap eff</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Nm</t>
+  </si>
+  <si>
+    <t>gb</t>
   </si>
 </sst>
 </file>
@@ -485,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027EF2B-558D-425C-8AA2-44CBB5FD91AE}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,6 +902,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8629,7 +8671,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8711,4 +8753,1186 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A57609F-7666-4A88-A97E-AB1246BF196B}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>0.9</v>
+      </c>
+      <c r="E2">
+        <v>0.95</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E14D2F8-8160-4EE2-93B6-DE261A756A83}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>2000</v>
+      </c>
+      <c r="F2">
+        <v>3000</v>
+      </c>
+      <c r="G2">
+        <v>4000</v>
+      </c>
+      <c r="H2">
+        <v>5000</v>
+      </c>
+      <c r="I2">
+        <v>6000</v>
+      </c>
+      <c r="J2">
+        <v>7000</v>
+      </c>
+      <c r="K2">
+        <v>8000</v>
+      </c>
+      <c r="L2">
+        <v>9000</v>
+      </c>
+      <c r="M2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>IF(C$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>IF(D$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IF(E$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF(F$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>IF(G$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(H$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>IF(I$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>IF(J$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>IF(K$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>IF(L$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>IF(M$2=0,0,IF($B3=0,0,IF($B3*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B3/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>IF(C$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>IF(D$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.88349999999999995</v>
+      </c>
+      <c r="E4">
+        <f>IF(E$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.86349999999999993</v>
+      </c>
+      <c r="F4">
+        <f>IF(F$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="G4">
+        <f>IF(G$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="H4">
+        <f>IF(H$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.80349999999999999</v>
+      </c>
+      <c r="I4">
+        <f>IF(I$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="J4">
+        <f>IF(J$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.76349999999999996</v>
+      </c>
+      <c r="K4">
+        <f>IF(K$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.74349999999999994</v>
+      </c>
+      <c r="L4">
+        <f>IF(L$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.72349999999999992</v>
+      </c>
+      <c r="M4">
+        <f>IF(M$2=0,0,IF($B4=0,0,IF($B4*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B4/$B$23)))))</f>
+        <v>0.7034999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <f>IF(C$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>IF(D$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E5">
+        <f>IF(E$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="F5">
+        <f>IF(F$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.84700000000000009</v>
+      </c>
+      <c r="G5">
+        <f>IF(G$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.82700000000000007</v>
+      </c>
+      <c r="H5">
+        <f>IF(H$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="I5">
+        <f>IF(I$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="J5">
+        <f>IF(J$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="K5">
+        <f>IF(K$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.747</v>
+      </c>
+      <c r="L5">
+        <f>IF(L$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="M5">
+        <f>IF(M$2=0,0,IF($B5=0,0,IF($B5*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B5/$B$23)))))</f>
+        <v>0.70699999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <f>IF(C$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>IF(D$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.89049999999999996</v>
+      </c>
+      <c r="E6">
+        <f>IF(E$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.87049999999999994</v>
+      </c>
+      <c r="F6">
+        <f>IF(F$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="G6">
+        <f>IF(G$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="H6">
+        <f>IF(H$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.8105</v>
+      </c>
+      <c r="I6">
+        <f>IF(I$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.79049999999999998</v>
+      </c>
+      <c r="J6">
+        <f>IF(J$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="K6">
+        <f>IF(K$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="L6">
+        <f>IF(L$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.73049999999999993</v>
+      </c>
+      <c r="M6">
+        <f>IF(M$2=0,0,IF($B6=0,0,IF($B6*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B6/$B$23)))))</f>
+        <v>0.71049999999999991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <f>IF(C$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>IF(D$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="E7">
+        <f>IF(E$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.874</v>
+      </c>
+      <c r="F7">
+        <f>IF(F$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.85400000000000009</v>
+      </c>
+      <c r="G7">
+        <f>IF(G$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.83400000000000007</v>
+      </c>
+      <c r="H7">
+        <f>IF(H$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="I7">
+        <f>IF(I$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="J7">
+        <f>IF(J$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="K7">
+        <f>IF(K$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.754</v>
+      </c>
+      <c r="L7">
+        <f>IF(L$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="M7">
+        <f>IF(M$2=0,0,IF($B7=0,0,IF($B7*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B7/$B$23)))))</f>
+        <v>0.71399999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f>IF(C$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>IF(D$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="E8">
+        <f>IF(E$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="F8">
+        <f>IF(F$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.85750000000000004</v>
+      </c>
+      <c r="G8">
+        <f>IF(G$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="H8">
+        <f>IF(H$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.8175</v>
+      </c>
+      <c r="I8">
+        <f>IF(I$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.79749999999999999</v>
+      </c>
+      <c r="J8">
+        <f>IF(J$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="K8">
+        <f>IF(K$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.75749999999999995</v>
+      </c>
+      <c r="L8">
+        <f>IF(L$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="M8">
+        <f>IF(M$2=0,0,IF($B8=0,0,IF($B8*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B8/$B$23)))))</f>
+        <v>0.71749999999999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <f>IF(C$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>IF(D$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="E9">
+        <f>IF(E$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="F9">
+        <f>IF(F$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.8610000000000001</v>
+      </c>
+      <c r="G9">
+        <f>IF(G$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.84100000000000008</v>
+      </c>
+      <c r="H9">
+        <f>IF(H$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.82100000000000006</v>
+      </c>
+      <c r="I9">
+        <f>IF(I$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="J9">
+        <f>IF(J$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="K9">
+        <f>IF(K$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="L9">
+        <f>IF(L$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="M9">
+        <f>IF(M$2=0,0,IF($B9=0,0,IF($B9*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B9/$B$23)))))</f>
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <f>IF(C$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>IF(D$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.90449999999999997</v>
+      </c>
+      <c r="E10">
+        <f>IF(E$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="F10">
+        <f>IF(F$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="G10">
+        <f>IF(G$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="H10">
+        <f>IF(H$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.82450000000000001</v>
+      </c>
+      <c r="I10">
+        <f>IF(I$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.80449999999999999</v>
+      </c>
+      <c r="J10">
+        <f>IF(J$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="K10">
+        <f>IF(K$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="L10">
+        <f>IF(L$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.74449999999999994</v>
+      </c>
+      <c r="M10">
+        <f>IF(M$2=0,0,IF($B10=0,0,IF($B10*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B10/$B$23)))))</f>
+        <v>0.72449999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <f>IF(C$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>IF(D$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="E11">
+        <f>IF(E$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="F11">
+        <f>IF(F$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.8680000000000001</v>
+      </c>
+      <c r="G11">
+        <f>IF(G$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.84800000000000009</v>
+      </c>
+      <c r="H11">
+        <f>IF(H$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.82800000000000007</v>
+      </c>
+      <c r="I11">
+        <f>IF(I$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.80800000000000005</v>
+      </c>
+      <c r="J11">
+        <f>IF(J$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="K11">
+        <f>IF(K$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="L11">
+        <f>IF(L$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.748</v>
+      </c>
+      <c r="M11">
+        <f>IF(M$2=0,0,IF($B11=0,0,IF($B11*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B11/$B$23)))))</f>
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <f>IF(C$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>IF(D$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="E12">
+        <f>IF(E$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="F12">
+        <f>IF(F$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="G12">
+        <f>IF(G$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0.85150000000000003</v>
+      </c>
+      <c r="H12">
+        <f>IF(H$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="I12">
+        <f>IF(I$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0.8115</v>
+      </c>
+      <c r="J12">
+        <f>IF(J$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0.79149999999999998</v>
+      </c>
+      <c r="K12">
+        <f>IF(K$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="L12">
+        <f>IF(L$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>IF(M$2=0,0,IF($B12=0,0,IF($B12*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B12/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <f>IF(C$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>IF(D$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E13">
+        <f>IF(E$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="F13">
+        <f>IF(F$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="G13">
+        <f>IF(G$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0.85500000000000009</v>
+      </c>
+      <c r="H13">
+        <f>IF(H$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0.83500000000000008</v>
+      </c>
+      <c r="I13">
+        <f>IF(I$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0.81500000000000006</v>
+      </c>
+      <c r="J13">
+        <f>IF(J$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="K13">
+        <f>IF(K$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="L13">
+        <f>IF(L$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>IF(M$2=0,0,IF($B13=0,0,IF($B13*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B13/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>55</v>
+      </c>
+      <c r="C14">
+        <f>IF(C$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>IF(D$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0.91849999999999998</v>
+      </c>
+      <c r="E14">
+        <f>IF(E$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0.89849999999999997</v>
+      </c>
+      <c r="F14">
+        <f>IF(F$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0.87850000000000006</v>
+      </c>
+      <c r="G14">
+        <f>IF(G$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="H14">
+        <f>IF(H$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="I14">
+        <f>IF(I$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="J14">
+        <f>IF(J$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0.79849999999999999</v>
+      </c>
+      <c r="K14">
+        <f>IF(K$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>IF(L$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>IF(M$2=0,0,IF($B14=0,0,IF($B14*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B14/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>60</v>
+      </c>
+      <c r="C15">
+        <f>IF(C$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>IF(D$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E15">
+        <f>IF(E$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="F15">
+        <f>IF(F$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0.88200000000000012</v>
+      </c>
+      <c r="G15">
+        <f>IF(G$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0.8620000000000001</v>
+      </c>
+      <c r="H15">
+        <f>IF(H$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0.84200000000000008</v>
+      </c>
+      <c r="I15">
+        <f>IF(I$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0.82200000000000006</v>
+      </c>
+      <c r="J15">
+        <f>IF(J$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>IF(K$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>IF(L$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f>IF(M$2=0,0,IF($B15=0,0,IF($B15*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B15/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>65</v>
+      </c>
+      <c r="C16">
+        <f>IF(C$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>IF(D$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="E16">
+        <f>IF(E$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0.90549999999999997</v>
+      </c>
+      <c r="F16">
+        <f>IF(F$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0.88550000000000006</v>
+      </c>
+      <c r="G16">
+        <f>IF(G$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0.86550000000000005</v>
+      </c>
+      <c r="H16">
+        <f>IF(H$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0.84550000000000003</v>
+      </c>
+      <c r="I16">
+        <f>IF(I$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0.82550000000000001</v>
+      </c>
+      <c r="J16">
+        <f>IF(J$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>IF(K$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>IF(L$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f>IF(M$2=0,0,IF($B16=0,0,IF($B16*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B16/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>70</v>
+      </c>
+      <c r="C17">
+        <f>IF(C$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>IF(D$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E17">
+        <f>IF(E$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="F17">
+        <f>IF(F$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0.88900000000000012</v>
+      </c>
+      <c r="G17">
+        <f>IF(G$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0.86900000000000011</v>
+      </c>
+      <c r="H17">
+        <f>IF(H$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0.84900000000000009</v>
+      </c>
+      <c r="I17">
+        <f>IF(I$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>IF(J$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>IF(K$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>IF(L$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>IF(M$2=0,0,IF($B17=0,0,IF($B17*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B17/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>75</v>
+      </c>
+      <c r="C18">
+        <f>IF(C$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>IF(D$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0.9325</v>
+      </c>
+      <c r="E18">
+        <f>IF(E$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0.91249999999999998</v>
+      </c>
+      <c r="F18">
+        <f>IF(F$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0.89250000000000007</v>
+      </c>
+      <c r="G18">
+        <f>IF(G$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0.87250000000000005</v>
+      </c>
+      <c r="H18">
+        <f>IF(H$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="I18">
+        <f>IF(I$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>IF(J$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>IF(K$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>IF(L$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>IF(M$2=0,0,IF($B18=0,0,IF($B18*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B18/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <f>IF(C$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>IF(D$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="E19">
+        <f>IF(E$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="F19">
+        <f>IF(F$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0.89600000000000013</v>
+      </c>
+      <c r="G19">
+        <f>IF(G$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0.87600000000000011</v>
+      </c>
+      <c r="H19">
+        <f>IF(H$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0.85600000000000009</v>
+      </c>
+      <c r="I19">
+        <f>IF(I$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>IF(J$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>IF(K$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>IF(L$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>IF(M$2=0,0,IF($B19=0,0,IF($B19*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B19/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>85</v>
+      </c>
+      <c r="C20">
+        <f>IF(C$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>IF(D$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0.9395</v>
+      </c>
+      <c r="E20">
+        <f>IF(E$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="F20">
+        <f>IF(F$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0.89950000000000008</v>
+      </c>
+      <c r="G20">
+        <f>IF(G$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0.87950000000000006</v>
+      </c>
+      <c r="H20">
+        <f>IF(H$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>IF(I$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>IF(J$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>IF(K$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>IF(L$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>IF(M$2=0,0,IF($B20=0,0,IF($B20*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B20/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>90</v>
+      </c>
+      <c r="C21">
+        <f>IF(C$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>IF(D$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0.94300000000000006</v>
+      </c>
+      <c r="E21">
+        <f>IF(E$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F21">
+        <f>IF(F$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0.90300000000000014</v>
+      </c>
+      <c r="G21">
+        <f>IF(G$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0.88300000000000012</v>
+      </c>
+      <c r="H21">
+        <f>IF(H$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>IF(I$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>IF(J$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>IF(K$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>IF(L$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>IF(M$2=0,0,IF($B21=0,0,IF($B21*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B21/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <f>IF(C$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>IF(D$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="E22">
+        <f>IF(E$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0.92649999999999999</v>
+      </c>
+      <c r="F22">
+        <f>IF(F$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0.90650000000000008</v>
+      </c>
+      <c r="G22">
+        <f>IF(G$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0.88650000000000007</v>
+      </c>
+      <c r="H22">
+        <f>IF(H$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>IF(I$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>IF(J$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>IF(K$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>IF(L$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>IF(M$2=0,0,IF($B22=0,0,IF($B22*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B22/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <f>IF(C$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*C$2/60)&gt;$A$24,0,0.9+(-0.2*(C$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>IF(D$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*D$2/60)&gt;$A$24,0,0.9+(-0.2*(D$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0.95</v>
+      </c>
+      <c r="E23">
+        <f>IF(E$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*E$2/60)&gt;$A$24,0,0.9+(-0.2*(E$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="F23">
+        <f>IF(F$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*F$2/60)&gt;$A$24,0,0.9+(-0.2*(F$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="G23">
+        <f>IF(G$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*G$2/60)&gt;$A$24,0,0.9+(-0.2*(G$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0.89000000000000012</v>
+      </c>
+      <c r="H23">
+        <f>IF(H$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*H$2/60)&gt;$A$24,0,0.9+(-0.2*(H$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>IF(I$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*I$2/60)&gt;$A$24,0,0.9+(-0.2*(I$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>IF(J$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*J$2/60)&gt;$A$24,0,0.9+(-0.2*(J$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>IF(K$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*K$2/60)&gt;$A$24,0,0.9+(-0.2*(K$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>IF(L$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*L$2/60)&gt;$A$24,0,0.9+(-0.2*(L$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>IF(M$2=0,0,IF($B23=0,0,IF($B23*(2*PI()*M$2/60)&gt;$A$24,0,0.9+(-0.2*(M$2/$M$2))+(0.07*($B23/$B$23)))))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>100*(2*PI()*4000/60)</f>
+        <v>41887.902047863907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bikedef4.xlsx
+++ b/bikedef4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\code\triangle-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBFFB7F-EDEA-4357-8693-57E9542089A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD64284-F706-4F1F-9A48-268FE81EAD90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="3960" windowWidth="17700" windowHeight="5085" activeTab="3" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
   </bookViews>
   <sheets>
     <sheet name="vehicledyn" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Info</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>Nm</t>
-  </si>
-  <si>
-    <t>gb</t>
   </si>
 </sst>
 </file>
@@ -526,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027EF2B-558D-425C-8AA2-44CBB5FD91AE}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +614,7 @@
         <v>0.30046382189239335</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="I2">
         <v>0.30071119356833642</v>
@@ -910,7 +907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5DCA7E-AA64-46A5-B806-570C986F4BAD}">
   <dimension ref="A1:V89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8671,7 +8670,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8759,7 +8758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A57609F-7666-4A88-A97E-AB1246BF196B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -8801,8 +8800,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0.9</v>

--- a/bikedef4.xlsx
+++ b/bikedef4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan\Documents\code\triangle-races\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD64284-F706-4F1F-9A48-268FE81EAD90}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF0227B-BE43-430A-9347-56DFDA4D5F86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF3EC270-673E-4C63-9CCE-0B91219AFD35}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Info</t>
   </si>
@@ -170,6 +170,30 @@
   </si>
   <si>
     <t>Nm</t>
+  </si>
+  <si>
+    <t>J/ lap</t>
+  </si>
+  <si>
+    <t>J/kg</t>
+  </si>
+  <si>
+    <t>kg/lap</t>
+  </si>
+  <si>
+    <t>laps</t>
+  </si>
+  <si>
+    <t>safety factor</t>
+  </si>
+  <si>
+    <t>total fuel kg</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>litres</t>
   </si>
 </sst>
 </file>
@@ -521,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1027EF2B-558D-425C-8AA2-44CBB5FD91AE}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,28 +626,29 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>-1.1000000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="E2">
-        <v>0.69953617810760704</v>
+        <v>0.68640045570419461</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>9.7470381870124832E-3</v>
       </c>
       <c r="G2">
-        <v>0.30046382189239335</v>
+        <v>0.3031743948271628</v>
       </c>
       <c r="H2">
-        <v>1.2</v>
+        <f>16.9/9.8</f>
+        <v>1.7244897959183672</v>
       </c>
       <c r="I2">
-        <v>0.30071119356833642</v>
+        <v>0.11238811074397902</v>
       </c>
       <c r="J2">
-        <v>0.36969696969696969</v>
+        <v>0.54479926923590116</v>
       </c>
       <c r="K2">
-        <v>0.32959183673469389</v>
+        <v>0.34213450873849</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -895,6 +920,83 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>13366250.3155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <f>B11*1000000</f>
+        <v>50400000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17">
+        <f>B15/B16</f>
+        <v>0.26520337927579368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <f>B19*B18*B17</f>
+        <v>4.773660826964286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22">
+        <f>B20/B21</f>
+        <v>9.3601192685574226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1.2</v>
+      </c>
+      <c r="H24">
+        <f>K2+(G24-H2)*((G2-K2)/(D2-H2))</f>
+        <v>0.33537826766209927</v>
       </c>
     </row>
   </sheetData>
@@ -8670,7 +8772,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
